--- a/Telekocsi/Munkafüzet1.xlsx
+++ b/Telekocsi/Munkafüzet1.xlsx
@@ -3547,11 +3547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,7 +3560,7 @@
     <col min="3" max="5" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3593,8 +3593,12 @@
       <c r="E2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f t="array" ref="G2">SUM(1/COUNTIF(C2:C501,C2:C501))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3610,8 +3614,12 @@
       <c r="E3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>SUMPRODUCT(1/COUNTIF(C2:C501,C2:C501))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3628,7 +3636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3645,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3679,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3696,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3713,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3730,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -3747,7 +3755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3764,7 +3772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3781,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3798,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
